--- a/data/Excel/2.6.xlsx
+++ b/data/Excel/2.6.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkl\source\repos\repo\RAO_Project\data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\source\repos\Rampant91\AnalysisDB\DatabaseAnalysis.WPF\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E7968F-5B89-4565-BEFE-3DC042E8ADBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="435" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.0" sheetId="4" r:id="rId1"/>
@@ -37,9 +38,6 @@
     <t>Титульный лист к формам 2.1-2.12</t>
   </si>
   <si>
-    <t>ГОСУДАОСТВЕННЫЙ УЧЕТ И КОНТРОЛЬ РАДИОАКТИВНЫХ ВЕЩЕСТВ И РАДИОАКТИВНЫХ ОТХОДОВ</t>
-  </si>
-  <si>
     <t>Конфидициальность гарантруется получателем информации</t>
   </si>
   <si>
@@ -248,11 +246,14 @@
   <si>
     <t>(Электронная почта)</t>
   </si>
+  <si>
+    <t>ГОСУДАРСТВЕННЫЙ УЧЕТ И КОНТРОЛЬ РАДИОАКТИВНЫХ ВЕЩЕСТВ И РАДИОАКТИВНЫХ ОТХОДОВ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -781,7 +782,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -828,9 +829,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -842,10 +840,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -876,6 +874,51 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -885,6 +928,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -894,171 +994,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1335,11 +1332,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20:T29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1927,483 +1924,383 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="43" t="s">
+      <c r="E6" s="65"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="43"/>
+      <c r="H6" s="65"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="18"/>
+      <c r="H10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+    </row>
+    <row r="12" spans="1:10" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-    </row>
-    <row r="12" spans="1:10" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="61"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="F13" s="61"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="18"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="69"/>
+    </row>
+    <row r="16" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
-    </row>
-    <row r="16" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+      <c r="B16" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
+    </row>
+    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="61" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="50"/>
+    </row>
+    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
-    </row>
-    <row r="18" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="61" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="50"/>
+    </row>
+    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
-    </row>
-    <row r="19" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="61" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="50"/>
+    </row>
+    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-    </row>
-    <row r="20" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="61" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="50"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-    </row>
-    <row r="21" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="61" t="s">
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="50"/>
+    </row>
+    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="93"/>
-    </row>
-    <row r="22" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="63" t="s">
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
+    </row>
+    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="36"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-    </row>
-    <row r="23" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="63" t="s">
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="50"/>
+    </row>
+    <row r="24" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="38"/>
+      <c r="B24" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="93"/>
-      <c r="T23" s="93"/>
-    </row>
-    <row r="24" spans="1:20" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="67" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="72"/>
+    </row>
+    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="93"/>
-    </row>
-    <row r="25" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="B25" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="47"/>
+    </row>
+    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="93"/>
-    </row>
-    <row r="26" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="61" t="s">
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="50"/>
+    </row>
+    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="93"/>
-      <c r="S26" s="93"/>
-      <c r="T26" s="93"/>
-    </row>
-    <row r="27" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="61" t="s">
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="50"/>
+    </row>
+    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="93"/>
-      <c r="S27" s="93"/>
-      <c r="T27" s="93"/>
-    </row>
-    <row r="28" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="61" t="s">
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="50"/>
+    </row>
+    <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="93"/>
-      <c r="R28" s="93"/>
-      <c r="S28" s="93"/>
-      <c r="T28" s="93"/>
-    </row>
-    <row r="29" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="61" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="50"/>
+    </row>
+    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="50"/>
+    </row>
+    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="50"/>
+    </row>
+    <row r="32" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="38"/>
+      <c r="B32" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="36"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="93"/>
-    </row>
-    <row r="30" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="36"/>
-    </row>
-    <row r="31" spans="1:20" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
-    </row>
-    <row r="32" spans="1:20" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="58"/>
-      <c r="B32" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="39"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="72"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="8"/>
@@ -2415,51 +2312,51 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
+      <c r="A34" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="D35" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="F35" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="G35" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="H35" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="I35" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -2468,12 +2365,12 @@
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
-      <c r="I36" s="20"/>
+      <c r="I36" s="19"/>
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -2482,26 +2379,61 @@
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="20"/>
+      <c r="I37" s="19"/>
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+      <c r="A41" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:A32"/>
@@ -2518,41 +2450,6 @@
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
@@ -2560,7 +2457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:L19"/>
   <sheetViews>
@@ -3149,119 +3046,119 @@
       <c r="E1" s="13"/>
       <c r="H1" s="14"/>
       <c r="L1" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="85" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+    </row>
+    <row r="5" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:12" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:12" ht="320.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-    </row>
-    <row r="5" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:12" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:12" ht="320.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
+      <c r="B8" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="C8" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="D8" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="E8" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="F8" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="79" t="s">
+      <c r="G8" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="79" t="s">
+      <c r="H8" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="79" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
     </row>
     <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
@@ -3304,7 +3201,7 @@
     </row>
     <row r="13" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -3312,84 +3209,84 @@
       <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="C14" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="81"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="84"/>
+    </row>
+    <row r="18" spans="1:12" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="83"/>
-    </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="86"/>
-    </row>
-    <row r="18" spans="1:12" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
     </row>
     <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="32" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="91" t="s">
+      <c r="G19" s="75"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="91"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32" t="s">
+      <c r="J19" s="31"/>
+      <c r="K19" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="32"/>
-      <c r="K19" s="92" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19" s="92"/>
+      <c r="L19" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C15:L15"/>
@@ -3401,11 +3298,11 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
